--- a/Test_files/Data/Records/an.xlsx
+++ b/Test_files/Data/Records/an.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sporleder_m\Python_Dymola_inter\GitHub\Synergie_App\Test_files\Data\Records\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sporleder_M\Synergie\Test_files\Data\Records\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Bezeichnung</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>kt_b</t>
+  </si>
+  <si>
+    <t>Record</t>
   </si>
 </sst>
 </file>
@@ -590,11 +593,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -916,9 +922,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -926,103 +934,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>21</v>
+      <c r="A12" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
+      <c r="A13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
@@ -1090,7 +1101,13 @@
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
     </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
